--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>12.43612633333333</v>
+        <v>0.04202566666666666</v>
       </c>
       <c r="H2">
-        <v>37.308379</v>
+        <v>0.126077</v>
       </c>
       <c r="I2">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="J2">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.631265</v>
+        <v>2.675565666666666</v>
       </c>
       <c r="N2">
-        <v>82.893795</v>
+        <v>8.026696999999999</v>
       </c>
       <c r="O2">
-        <v>0.5169298047761691</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="P2">
-        <v>0.516929804776169</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="Q2">
-        <v>343.6259022898117</v>
+        <v>0.1124424308521111</v>
       </c>
       <c r="R2">
-        <v>3092.633120608305</v>
+        <v>1.011981877669</v>
       </c>
       <c r="S2">
-        <v>0.1201198611326288</v>
+        <v>0.0002580600421916182</v>
       </c>
       <c r="T2">
-        <v>0.1201198611326288</v>
+        <v>0.0002580600421916182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>12.43612633333333</v>
+        <v>0.04202566666666666</v>
       </c>
       <c r="H3">
-        <v>37.308379</v>
+        <v>0.126077</v>
       </c>
       <c r="I3">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="J3">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.513095000000001</v>
       </c>
       <c r="O3">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="P3">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="Q3">
-        <v>26.99922408033389</v>
+        <v>0.09123905314611111</v>
       </c>
       <c r="R3">
-        <v>242.993016723005</v>
+        <v>0.821151478315</v>
       </c>
       <c r="S3">
-        <v>0.009438005184147006</v>
+        <v>0.0002093974109771451</v>
       </c>
       <c r="T3">
-        <v>0.009438005184147006</v>
+        <v>0.0002093974109771452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>12.43612633333333</v>
+        <v>0.04202566666666666</v>
       </c>
       <c r="H4">
-        <v>37.308379</v>
+        <v>0.126077</v>
       </c>
       <c r="I4">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="J4">
-        <v>0.2323717069953836</v>
+        <v>0.001003231639737821</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.65034766666666</v>
+        <v>5.554905000000001</v>
       </c>
       <c r="N4">
-        <v>70.951043</v>
+        <v>16.664715</v>
       </c>
       <c r="O4">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485671</v>
       </c>
       <c r="P4">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485669</v>
       </c>
       <c r="Q4">
-        <v>294.1187114099219</v>
+        <v>0.233448585895</v>
       </c>
       <c r="R4">
-        <v>2647.068402689297</v>
+        <v>2.101037273055</v>
       </c>
       <c r="S4">
-        <v>0.1028138406786078</v>
+        <v>0.0005357741865690575</v>
       </c>
       <c r="T4">
-        <v>0.1028138406786078</v>
+        <v>0.0005357741865690575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>119.127721</v>
       </c>
       <c r="I5">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351343</v>
       </c>
       <c r="J5">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351345</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.631265</v>
+        <v>2.675565666666666</v>
       </c>
       <c r="N5">
-        <v>82.893795</v>
+        <v>8.026696999999999</v>
       </c>
       <c r="O5">
-        <v>0.5169298047761691</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="P5">
-        <v>0.516929804776169</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="Q5">
-        <v>1097.216542599022</v>
+        <v>106.2446800852819</v>
       </c>
       <c r="R5">
-        <v>9874.948883391195</v>
+        <v>956.2021207675368</v>
       </c>
       <c r="S5">
-        <v>0.3835493711363485</v>
+        <v>0.2438359471390604</v>
       </c>
       <c r="T5">
-        <v>0.3835493711363485</v>
+        <v>0.2438359471390605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>119.127721</v>
       </c>
       <c r="I6">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351343</v>
       </c>
       <c r="J6">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351345</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>6.513095000000001</v>
       </c>
       <c r="O6">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="P6">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="Q6">
         <v>86.2100182229439</v>
       </c>
       <c r="R6">
-        <v>775.8901640064952</v>
+        <v>775.8901640064951</v>
       </c>
       <c r="S6">
-        <v>0.0301360734105767</v>
+        <v>0.1978555672565788</v>
       </c>
       <c r="T6">
-        <v>0.0301360734105767</v>
+        <v>0.1978555672565788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>119.127721</v>
       </c>
       <c r="I7">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351343</v>
       </c>
       <c r="J7">
-        <v>0.7419757336345224</v>
+        <v>0.9479341900351345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.65034766666666</v>
+        <v>5.554905000000001</v>
       </c>
       <c r="N7">
-        <v>70.951043</v>
+        <v>16.664715</v>
       </c>
       <c r="O7">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485671</v>
       </c>
       <c r="P7">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485669</v>
       </c>
       <c r="Q7">
-        <v>939.1373394625558</v>
+        <v>220.581057673835</v>
       </c>
       <c r="R7">
-        <v>8452.236055163003</v>
+        <v>1985.229519064515</v>
       </c>
       <c r="S7">
-        <v>0.3282902890875972</v>
+        <v>0.5062426756394952</v>
       </c>
       <c r="T7">
-        <v>0.3282902890875972</v>
+        <v>0.5062426756394952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.37288</v>
+        <v>2.139026333333333</v>
       </c>
       <c r="H8">
-        <v>4.11864</v>
+        <v>6.417078999999999</v>
       </c>
       <c r="I8">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="J8">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.631265</v>
+        <v>2.675565666666666</v>
       </c>
       <c r="N8">
-        <v>82.893795</v>
+        <v>8.026696999999999</v>
       </c>
       <c r="O8">
-        <v>0.5169298047761691</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="P8">
-        <v>0.516929804776169</v>
+        <v>0.2572287714720184</v>
       </c>
       <c r="Q8">
-        <v>37.9344110932</v>
+        <v>5.723105417562554</v>
       </c>
       <c r="R8">
-        <v>341.4096998388</v>
+        <v>51.50794875806299</v>
       </c>
       <c r="S8">
-        <v>0.01326057250719176</v>
+        <v>0.01313476429076633</v>
       </c>
       <c r="T8">
-        <v>0.01326057250719176</v>
+        <v>0.01313476429076633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.37288</v>
+        <v>2.139026333333333</v>
       </c>
       <c r="H9">
-        <v>4.11864</v>
+        <v>6.417078999999999</v>
       </c>
       <c r="I9">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="J9">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.513095000000001</v>
       </c>
       <c r="O9">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="P9">
-        <v>0.0406159824971054</v>
+        <v>0.2087228937794146</v>
       </c>
       <c r="Q9">
-        <v>2.980565954533334</v>
+        <v>4.643893905500556</v>
       </c>
       <c r="R9">
-        <v>26.82509359080001</v>
+        <v>41.795045149505</v>
       </c>
       <c r="S9">
-        <v>0.001041903902381694</v>
+        <v>0.01065792911185869</v>
       </c>
       <c r="T9">
-        <v>0.001041903902381694</v>
+        <v>0.01065792911185869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.37288</v>
+        <v>2.139026333333333</v>
       </c>
       <c r="H10">
-        <v>4.11864</v>
+        <v>6.417078999999999</v>
       </c>
       <c r="I10">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="J10">
-        <v>0.02565255937009396</v>
+        <v>0.05106257832512778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.65034766666666</v>
+        <v>5.554905000000001</v>
       </c>
       <c r="N10">
-        <v>70.951043</v>
+        <v>16.664715</v>
       </c>
       <c r="O10">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485671</v>
       </c>
       <c r="P10">
-        <v>0.4424542127267255</v>
+        <v>0.5340483347485669</v>
       </c>
       <c r="Q10">
-        <v>32.46908930461333</v>
+        <v>11.882088074165</v>
       </c>
       <c r="R10">
-        <v>292.22180374152</v>
+        <v>106.938792667485</v>
       </c>
       <c r="S10">
-        <v>0.01135008296052051</v>
+        <v>0.02726988492250277</v>
       </c>
       <c r="T10">
-        <v>0.01135008296052051</v>
+        <v>0.02726988492250276</v>
       </c>
     </row>
   </sheetData>
